--- a/secteur-action-publique/jeunesse-culture-engagement/departements/barometre-resultats-jeunesse-culture-engagement-departements-synthese.xlsx
+++ b/secteur-action-publique/jeunesse-culture-engagement/departements/barometre-resultats-jeunesse-culture-engagement-departements-synthese.xlsx
@@ -176,10 +176,10 @@
     <t>Ardennes</t>
   </si>
   <si>
-    <t>2386.0</t>
-  </si>
-  <si>
-    <t>2020-10-31</t>
+    <t>2996.0</t>
+  </si>
+  <si>
+    <t>2021-03-31</t>
   </si>
   <si>
     <t>0</t>
@@ -197,7 +197,7 @@
     <t>Côtes-d'Armor</t>
   </si>
   <si>
-    <t>7312.0</t>
+    <t>9374.0</t>
   </si>
   <si>
     <t>25</t>
@@ -206,7 +206,7 @@
     <t>Doubs</t>
   </si>
   <si>
-    <t>4504.0</t>
+    <t>6423.0</t>
   </si>
   <si>
     <t>29</t>
@@ -215,7 +215,7 @@
     <t>Finistère</t>
   </si>
   <si>
-    <t>14622.0</t>
+    <t>18016.0</t>
   </si>
   <si>
     <t>34</t>
@@ -224,7 +224,7 @@
     <t>Hérault</t>
   </si>
   <si>
-    <t>12416.0</t>
+    <t>16202.0</t>
   </si>
   <si>
     <t>35</t>
@@ -233,7 +233,7 @@
     <t>Ille-et-Vilaine</t>
   </si>
   <si>
-    <t>17184.0</t>
+    <t>21784.0</t>
   </si>
   <si>
     <t>56</t>
@@ -242,7 +242,7 @@
     <t>Morbihan</t>
   </si>
   <si>
-    <t>10015.0</t>
+    <t>12741.0</t>
   </si>
   <si>
     <t>58</t>
@@ -251,7 +251,7 @@
     <t>Nièvre</t>
   </si>
   <si>
-    <t>1232.0</t>
+    <t>1667.0</t>
   </si>
   <si>
     <t>67</t>
@@ -260,7 +260,7 @@
     <t>Bas-Rhin</t>
   </si>
   <si>
-    <t>11442.0</t>
+    <t>15368.0</t>
   </si>
   <si>
     <t>71</t>
@@ -269,7 +269,7 @@
     <t>Saône-et-Loire</t>
   </si>
   <si>
-    <t>2685.0</t>
+    <t>3878.0</t>
   </si>
   <si>
     <t>84</t>
@@ -278,7 +278,7 @@
     <t>Vaucluse</t>
   </si>
   <si>
-    <t>2721.0</t>
+    <t>3936.0</t>
   </si>
   <si>
     <t>93</t>
@@ -287,7 +287,7 @@
     <t>Seine-Saint-Denis</t>
   </si>
   <si>
-    <t>15159.0</t>
+    <t>21537.0</t>
   </si>
   <si>
     <t>94</t>
@@ -296,7 +296,7 @@
     <t>Val-de-Marne</t>
   </si>
   <si>
-    <t>11079.0</t>
+    <t>15708.0</t>
   </si>
   <si>
     <t>973</t>
@@ -305,7 +305,7 @@
     <t>Guyane</t>
   </si>
   <si>
-    <t>1164.0</t>
+    <t>1347.0</t>
   </si>
 </sst>
 </file>
